--- a/Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/Financials/Yearly/LFC_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B74018-30AD-4E66-BCE5-3F73F3372465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LFC" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>93964100</v>
+        <v>95889500</v>
       </c>
       <c r="E8" s="3">
-        <v>79032000</v>
+        <v>80651500</v>
       </c>
       <c r="F8" s="3">
-        <v>73845000</v>
+        <v>75358100</v>
       </c>
       <c r="G8" s="3">
-        <v>64267700</v>
+        <v>65584600</v>
       </c>
       <c r="H8" s="3">
-        <v>61325800</v>
+        <v>62582400</v>
       </c>
       <c r="I8" s="3">
-        <v>54025100</v>
+        <v>55132100</v>
       </c>
       <c r="J8" s="3">
-        <v>53939800</v>
+        <v>55045100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>78373400</v>
+        <v>79979300</v>
       </c>
       <c r="E9" s="3">
-        <v>67535200</v>
+        <v>68919100</v>
       </c>
       <c r="F9" s="3">
-        <v>56725300</v>
+        <v>57887600</v>
       </c>
       <c r="G9" s="3">
-        <v>50085900</v>
+        <v>51112300</v>
       </c>
       <c r="H9" s="3">
-        <v>49416500</v>
+        <v>50429100</v>
       </c>
       <c r="I9" s="3">
-        <v>48042500</v>
+        <v>49026900</v>
       </c>
       <c r="J9" s="3">
-        <v>46564100</v>
+        <v>47518200</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15590700</v>
+        <v>15910100</v>
       </c>
       <c r="E10" s="3">
-        <v>11496800</v>
+        <v>11732400</v>
       </c>
       <c r="F10" s="3">
-        <v>17119700</v>
+        <v>17470500</v>
       </c>
       <c r="G10" s="3">
-        <v>14181800</v>
+        <v>14472300</v>
       </c>
       <c r="H10" s="3">
-        <v>11909300</v>
+        <v>12153300</v>
       </c>
       <c r="I10" s="3">
-        <v>5982600</v>
+        <v>6105100</v>
       </c>
       <c r="J10" s="3">
-        <v>7375800</v>
+        <v>7526900</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,24 +889,24 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>401000</v>
+        <v>409200</v>
       </c>
       <c r="E14" s="3">
-        <v>386300</v>
+        <v>394200</v>
       </c>
       <c r="F14" s="3">
-        <v>46700</v>
+        <v>47600</v>
       </c>
       <c r="G14" s="3">
-        <v>167100</v>
+        <v>170500</v>
       </c>
       <c r="H14" s="3">
-        <v>553100</v>
+        <v>564400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>88942700</v>
+        <v>90765200</v>
       </c>
       <c r="E17" s="3">
-        <v>76416200</v>
+        <v>77982000</v>
       </c>
       <c r="F17" s="3">
-        <v>67452300</v>
+        <v>68834500</v>
       </c>
       <c r="G17" s="3">
-        <v>58273500</v>
+        <v>59467600</v>
       </c>
       <c r="H17" s="3">
-        <v>56910800</v>
+        <v>58077000</v>
       </c>
       <c r="I17" s="3">
-        <v>52497200</v>
+        <v>53572900</v>
       </c>
       <c r="J17" s="3">
-        <v>51151500</v>
+        <v>52199700</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5021400</v>
+        <v>5124300</v>
       </c>
       <c r="E18" s="3">
-        <v>2615800</v>
+        <v>2669500</v>
       </c>
       <c r="F18" s="3">
-        <v>6392700</v>
+        <v>6523700</v>
       </c>
       <c r="G18" s="3">
-        <v>5994200</v>
+        <v>6117000</v>
       </c>
       <c r="H18" s="3">
-        <v>4415000</v>
+        <v>4505400</v>
       </c>
       <c r="I18" s="3">
-        <v>1527900</v>
+        <v>1559200</v>
       </c>
       <c r="J18" s="3">
-        <v>2788300</v>
+        <v>2845500</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,61 +1020,61 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1038800</v>
+        <v>1060100</v>
       </c>
       <c r="E20" s="3">
-        <v>851500</v>
+        <v>868900</v>
       </c>
       <c r="F20" s="3">
-        <v>287100</v>
+        <v>293000</v>
       </c>
       <c r="G20" s="3">
-        <v>-118500</v>
+        <v>-121000</v>
       </c>
       <c r="H20" s="3">
-        <v>454500</v>
+        <v>463800</v>
       </c>
       <c r="I20" s="3">
-        <v>441700</v>
+        <v>450700</v>
       </c>
       <c r="J20" s="3">
-        <v>321800</v>
+        <v>328400</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6386900</v>
+        <v>6517400</v>
       </c>
       <c r="E21" s="3">
-        <v>3771200</v>
+        <v>3848100</v>
       </c>
       <c r="F21" s="3">
-        <v>6976700</v>
+        <v>7119300</v>
       </c>
       <c r="G21" s="3">
-        <v>6185500</v>
+        <v>6311800</v>
       </c>
       <c r="H21" s="3">
-        <v>5164900</v>
+        <v>5270400</v>
       </c>
       <c r="I21" s="3">
-        <v>2253800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3388600</v>
+        <v>2299700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1056,71 +1091,71 @@
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>586400</v>
+        <v>598400</v>
       </c>
       <c r="I22" s="3">
-        <v>374500</v>
+        <v>382200</v>
       </c>
       <c r="J22" s="3">
-        <v>127000</v>
+        <v>129600</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6060200</v>
+        <v>6184400</v>
       </c>
       <c r="E23" s="3">
-        <v>3467300</v>
+        <v>3538400</v>
       </c>
       <c r="F23" s="3">
-        <v>6679700</v>
+        <v>6816600</v>
       </c>
       <c r="G23" s="3">
-        <v>5875700</v>
+        <v>5996100</v>
       </c>
       <c r="H23" s="3">
-        <v>4283100</v>
+        <v>4370800</v>
       </c>
       <c r="I23" s="3">
-        <v>1595100</v>
+        <v>1627800</v>
       </c>
       <c r="J23" s="3">
-        <v>2983200</v>
+        <v>3044300</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1297100</v>
+        <v>1323700</v>
       </c>
       <c r="E24" s="3">
-        <v>619100</v>
+        <v>631800</v>
       </c>
       <c r="F24" s="3">
-        <v>1562500</v>
+        <v>1594500</v>
       </c>
       <c r="G24" s="3">
-        <v>1147200</v>
+        <v>1170700</v>
       </c>
       <c r="H24" s="3">
-        <v>646100</v>
+        <v>659400</v>
       </c>
       <c r="I24" s="3">
-        <v>-44200</v>
+        <v>-45100</v>
       </c>
       <c r="J24" s="3">
-        <v>294100</v>
+        <v>300100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4763100</v>
+        <v>4860700</v>
       </c>
       <c r="E26" s="3">
-        <v>2848200</v>
+        <v>2906600</v>
       </c>
       <c r="F26" s="3">
-        <v>5117200</v>
+        <v>5222100</v>
       </c>
       <c r="G26" s="3">
-        <v>4728500</v>
+        <v>4825400</v>
       </c>
       <c r="H26" s="3">
-        <v>3636900</v>
+        <v>3711400</v>
       </c>
       <c r="I26" s="3">
-        <v>1639300</v>
+        <v>1672900</v>
       </c>
       <c r="J26" s="3">
-        <v>2689100</v>
+        <v>2744200</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4690600</v>
+        <v>4786700</v>
       </c>
       <c r="E27" s="3">
-        <v>2781600</v>
+        <v>2838600</v>
       </c>
       <c r="F27" s="3">
-        <v>5046300</v>
+        <v>5149700</v>
       </c>
       <c r="G27" s="3">
-        <v>4684400</v>
+        <v>4780400</v>
       </c>
       <c r="H27" s="3">
-        <v>3601600</v>
+        <v>3675400</v>
       </c>
       <c r="I27" s="3">
-        <v>1608600</v>
+        <v>1641600</v>
       </c>
       <c r="J27" s="3">
-        <v>2665900</v>
+        <v>2720500</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1038800</v>
+        <v>-1060100</v>
       </c>
       <c r="E32" s="3">
-        <v>-851500</v>
+        <v>-868900</v>
       </c>
       <c r="F32" s="3">
-        <v>-287100</v>
+        <v>-293000</v>
       </c>
       <c r="G32" s="3">
-        <v>118500</v>
+        <v>121000</v>
       </c>
       <c r="H32" s="3">
-        <v>-454500</v>
+        <v>-463800</v>
       </c>
       <c r="I32" s="3">
-        <v>-441700</v>
+        <v>-450700</v>
       </c>
       <c r="J32" s="3">
-        <v>-321800</v>
+        <v>-328400</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4690600</v>
+        <v>4786700</v>
       </c>
       <c r="E33" s="3">
-        <v>2781600</v>
+        <v>2838600</v>
       </c>
       <c r="F33" s="3">
-        <v>5046300</v>
+        <v>5149700</v>
       </c>
       <c r="G33" s="3">
-        <v>4684400</v>
+        <v>4780400</v>
       </c>
       <c r="H33" s="3">
-        <v>3601600</v>
+        <v>3675400</v>
       </c>
       <c r="I33" s="3">
-        <v>1608600</v>
+        <v>1641600</v>
       </c>
       <c r="J33" s="3">
-        <v>2665900</v>
+        <v>2720500</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4690600</v>
+        <v>4786700</v>
       </c>
       <c r="E35" s="3">
-        <v>2781600</v>
+        <v>2838600</v>
       </c>
       <c r="F35" s="3">
-        <v>5046300</v>
+        <v>5149700</v>
       </c>
       <c r="G35" s="3">
-        <v>4684400</v>
+        <v>4780400</v>
       </c>
       <c r="H35" s="3">
-        <v>3601600</v>
+        <v>3675400</v>
       </c>
       <c r="I35" s="3">
-        <v>1608600</v>
+        <v>1641600</v>
       </c>
       <c r="J35" s="3">
-        <v>2665900</v>
+        <v>2720500</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,34 +1510,34 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6899800</v>
+        <v>7041200</v>
       </c>
       <c r="E41" s="3">
-        <v>9360500</v>
+        <v>9552300</v>
       </c>
       <c r="F41" s="3">
-        <v>10781500</v>
+        <v>11002400</v>
       </c>
       <c r="G41" s="3">
-        <v>6840200</v>
+        <v>6980300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3">
-        <v>10099800</v>
+        <v>10306800</v>
       </c>
       <c r="J41" s="3">
-        <v>7562500</v>
+        <v>7717500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,34 +1564,34 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2053600</v>
+        <v>2095700</v>
       </c>
       <c r="E43" s="3">
-        <v>1951800</v>
+        <v>1991800</v>
       </c>
       <c r="F43" s="3">
-        <v>1732500</v>
+        <v>1768000</v>
       </c>
       <c r="G43" s="3">
-        <v>2320200</v>
+        <v>2367700</v>
       </c>
       <c r="H43" s="3">
-        <v>1516100</v>
+        <v>1547200</v>
       </c>
       <c r="I43" s="3">
-        <v>1270800</v>
+        <v>1296800</v>
       </c>
       <c r="J43" s="3">
-        <v>1200200</v>
+        <v>1224800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,18 +1618,18 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58600</v>
+        <v>59800</v>
       </c>
       <c r="E45" s="3">
-        <v>955600</v>
+        <v>975200</v>
       </c>
       <c r="F45" s="3">
-        <v>922200</v>
+        <v>941100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -1610,7 +1645,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1637,61 +1672,61 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>394957000</v>
+        <v>403050000</v>
       </c>
       <c r="E47" s="3">
-        <v>364430000</v>
+        <v>371898000</v>
       </c>
       <c r="F47" s="3">
-        <v>328901000</v>
+        <v>335641000</v>
       </c>
       <c r="G47" s="3">
-        <v>304752000</v>
+        <v>310996000</v>
       </c>
       <c r="H47" s="3">
-        <v>269909000</v>
+        <v>275440000</v>
       </c>
       <c r="I47" s="3">
-        <v>253663000</v>
+        <v>258861000</v>
       </c>
       <c r="J47" s="3">
-        <v>212512000</v>
+        <v>216866000</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6656500</v>
+        <v>6792900</v>
       </c>
       <c r="E48" s="3">
-        <v>4592700</v>
+        <v>4686800</v>
       </c>
       <c r="F48" s="3">
-        <v>4102700</v>
+        <v>4186800</v>
       </c>
       <c r="G48" s="3">
-        <v>3872900</v>
+        <v>3952300</v>
       </c>
       <c r="H48" s="3">
-        <v>3595300</v>
+        <v>3669000</v>
       </c>
       <c r="I48" s="3">
-        <v>3248200</v>
+        <v>3314700</v>
       </c>
       <c r="J48" s="3">
-        <v>2942200</v>
+        <v>3002500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1705,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>892500</v>
+        <v>910800</v>
       </c>
       <c r="H49" s="3">
-        <v>899200</v>
+        <v>917600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -1718,7 +1753,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,7 +1807,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +1824,7 @@
         <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>2913800</v>
+        <v>2973500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -1799,7 +1834,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>421397000</v>
+        <v>430032000</v>
       </c>
       <c r="E54" s="3">
-        <v>392218000</v>
+        <v>400255000</v>
       </c>
       <c r="F54" s="3">
-        <v>356059000</v>
+        <v>363354000</v>
       </c>
       <c r="G54" s="3">
-        <v>326718000</v>
+        <v>333413000</v>
       </c>
       <c r="H54" s="3">
-        <v>286925000</v>
+        <v>292804000</v>
       </c>
       <c r="I54" s="3">
-        <v>276159000</v>
+        <v>281818000</v>
       </c>
       <c r="J54" s="3">
-        <v>230348000</v>
+        <v>235068000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,7 +1914,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1906,7 +1941,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1933,34 +1968,34 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>359927000</v>
+        <v>367302000</v>
       </c>
       <c r="E59" s="3">
-        <v>329298000</v>
+        <v>336046000</v>
       </c>
       <c r="F59" s="3">
-        <v>288901000</v>
+        <v>294821000</v>
       </c>
       <c r="G59" s="3">
-        <v>265630000</v>
+        <v>271073000</v>
       </c>
       <c r="H59" s="3">
-        <v>238903000</v>
+        <v>243798000</v>
       </c>
       <c r="I59" s="3">
-        <v>28076000</v>
+        <v>28651300</v>
       </c>
       <c r="J59" s="3">
-        <v>21028900</v>
+        <v>21459800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1987,24 +2022,24 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2733200</v>
+        <v>2789200</v>
       </c>
       <c r="E61" s="3">
-        <v>7877700</v>
+        <v>8039100</v>
       </c>
       <c r="F61" s="3">
-        <v>10272700</v>
+        <v>10483200</v>
       </c>
       <c r="G61" s="3">
-        <v>10269100</v>
+        <v>10479500</v>
       </c>
       <c r="H61" s="3">
-        <v>9887100</v>
+        <v>10089700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2014,34 +2049,34 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>708400</v>
+        <v>722900</v>
       </c>
       <c r="E62" s="3">
-        <v>1129700</v>
+        <v>1152800</v>
       </c>
       <c r="F62" s="3">
-        <v>2465500</v>
+        <v>2516000</v>
       </c>
       <c r="G62" s="3">
-        <v>2817700</v>
+        <v>2875400</v>
       </c>
       <c r="H62" s="3">
-        <v>715400</v>
+        <v>730000</v>
       </c>
       <c r="I62" s="3">
-        <v>1139300</v>
+        <v>1162600</v>
       </c>
       <c r="J62" s="3">
-        <v>211500</v>
+        <v>215800</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>374723000</v>
+        <v>382402000</v>
       </c>
       <c r="E66" s="3">
-        <v>348062000</v>
+        <v>355194000</v>
       </c>
       <c r="F66" s="3">
-        <v>309158000</v>
+        <v>315493000</v>
       </c>
       <c r="G66" s="3">
-        <v>285399000</v>
+        <v>291247000</v>
       </c>
       <c r="H66" s="3">
-        <v>254882000</v>
+        <v>260105000</v>
       </c>
       <c r="I66" s="3">
-        <v>244007000</v>
+        <v>249007000</v>
       </c>
       <c r="J66" s="3">
-        <v>202493000</v>
+        <v>206643000</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34112100</v>
+        <v>34811000</v>
       </c>
       <c r="E72" s="3">
-        <v>30443700</v>
+        <v>31067600</v>
       </c>
       <c r="F72" s="3">
-        <v>29439800</v>
+        <v>30043100</v>
       </c>
       <c r="G72" s="3">
-        <v>26021600</v>
+        <v>26554900</v>
       </c>
       <c r="H72" s="3">
-        <v>22451500</v>
+        <v>22911500</v>
       </c>
       <c r="I72" s="3">
-        <v>19425400</v>
+        <v>19823400</v>
       </c>
       <c r="J72" s="3">
-        <v>18762200</v>
+        <v>19146700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46673300</v>
+        <v>47629700</v>
       </c>
       <c r="E76" s="3">
-        <v>44155600</v>
+        <v>45060400</v>
       </c>
       <c r="F76" s="3">
-        <v>46900000</v>
+        <v>47861000</v>
       </c>
       <c r="G76" s="3">
-        <v>41319700</v>
+        <v>42166400</v>
       </c>
       <c r="H76" s="3">
-        <v>32042700</v>
+        <v>32699300</v>
       </c>
       <c r="I76" s="3">
-        <v>32152400</v>
+        <v>32811200</v>
       </c>
       <c r="J76" s="3">
-        <v>27854200</v>
+        <v>28425000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4690600</v>
+        <v>4786700</v>
       </c>
       <c r="E81" s="3">
-        <v>2781600</v>
+        <v>2838600</v>
       </c>
       <c r="F81" s="3">
-        <v>5046300</v>
+        <v>5149700</v>
       </c>
       <c r="G81" s="3">
-        <v>4684400</v>
+        <v>4780400</v>
       </c>
       <c r="H81" s="3">
-        <v>3601600</v>
+        <v>3675400</v>
       </c>
       <c r="I81" s="3">
-        <v>1608600</v>
+        <v>1641600</v>
       </c>
       <c r="J81" s="3">
-        <v>2665900</v>
+        <v>2720500</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>325800</v>
+        <v>332400</v>
       </c>
       <c r="E83" s="3">
-        <v>302900</v>
+        <v>309100</v>
       </c>
       <c r="F83" s="3">
-        <v>296100</v>
+        <v>302200</v>
       </c>
       <c r="G83" s="3">
-        <v>308900</v>
+        <v>315200</v>
       </c>
       <c r="H83" s="3">
-        <v>294600</v>
+        <v>300700</v>
       </c>
       <c r="I83" s="3">
-        <v>283400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>277600</v>
+        <v>289300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29230000</v>
+        <v>29828900</v>
       </c>
       <c r="E89" s="3">
-        <v>12957500</v>
+        <v>13223000</v>
       </c>
       <c r="F89" s="3">
-        <v>-2735700</v>
+        <v>-2791700</v>
       </c>
       <c r="G89" s="3">
-        <v>11379500</v>
+        <v>11612600</v>
       </c>
       <c r="H89" s="3">
-        <v>9931700</v>
+        <v>10135200</v>
       </c>
       <c r="I89" s="3">
-        <v>19223200</v>
+        <v>19617100</v>
       </c>
       <c r="J89" s="3">
-        <v>19480800</v>
+        <v>19880000</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1398900</v>
+        <v>-1427600</v>
       </c>
       <c r="E91" s="3">
-        <v>-772200</v>
+        <v>-788100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1219300</v>
+        <v>-1244300</v>
       </c>
       <c r="G91" s="3">
-        <v>-734100</v>
+        <v>-749200</v>
       </c>
       <c r="H91" s="3">
-        <v>-541600</v>
+        <v>-552700</v>
       </c>
       <c r="I91" s="3">
-        <v>-964500</v>
+        <v>-984300</v>
       </c>
       <c r="J91" s="3">
-        <v>-975500</v>
+        <v>-995500</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25257700</v>
+        <v>-25775300</v>
       </c>
       <c r="E94" s="3">
-        <v>-15227000</v>
+        <v>-15539000</v>
       </c>
       <c r="F94" s="3">
-        <v>9750600</v>
+        <v>9950400</v>
       </c>
       <c r="G94" s="3">
-        <v>-10072000</v>
+        <v>-10278400</v>
       </c>
       <c r="H94" s="3">
-        <v>-8759700</v>
+        <v>-8939200</v>
       </c>
       <c r="I94" s="3">
-        <v>-29639200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-19428100</v>
+        <v>-30246600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1041900</v>
+        <v>-1063200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1782500</v>
+        <v>-1819100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1671100</v>
+        <v>-1705400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1904700</v>
+        <v>-1943700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1169300</v>
+        <v>-1193200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1211900</v>
+        <v>-1236700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1727100</v>
+        <v>-1762500</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6630900</v>
+        <v>-6766800</v>
       </c>
       <c r="E100" s="3">
-        <v>911800</v>
+        <v>930500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2823500</v>
+        <v>-2881400</v>
       </c>
       <c r="G100" s="3">
-        <v>2429300</v>
+        <v>2479000</v>
       </c>
       <c r="H100" s="3">
-        <v>-8159400</v>
+        <v>-8326500</v>
       </c>
       <c r="I100" s="3">
-        <v>12374500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1162100</v>
+        <v>12628100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26000</v>
+        <v>-26600</v>
       </c>
       <c r="E101" s="3">
-        <v>41400</v>
+        <v>42300</v>
       </c>
       <c r="F101" s="3">
-        <v>35000</v>
+        <v>35800</v>
       </c>
       <c r="G101" s="3">
         <v>1500</v>
       </c>
       <c r="H101" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>-32300</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2684600</v>
+        <v>-2739600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1316100</v>
+        <v>-1343100</v>
       </c>
       <c r="F102" s="3">
-        <v>4226500</v>
+        <v>4313100</v>
       </c>
       <c r="G102" s="3">
-        <v>3738100</v>
+        <v>3814700</v>
       </c>
       <c r="H102" s="3">
-        <v>-6998400</v>
+        <v>-7141800</v>
       </c>
       <c r="I102" s="3">
-        <v>1958500</v>
+        <v>1998600</v>
       </c>
       <c r="J102" s="3">
-        <v>1182500</v>
+        <v>1206700</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/LFC_YR_FIN.xlsx
+++ b/Financials/Yearly/LFC_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B74018-30AD-4E66-BCE5-3F73F3372465}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="LFC" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>LFC</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>95889500</v>
+        <v>91199300</v>
       </c>
       <c r="E8" s="3">
-        <v>80651500</v>
+        <v>92704100</v>
       </c>
       <c r="F8" s="3">
-        <v>75358100</v>
+        <v>77972300</v>
       </c>
       <c r="G8" s="3">
-        <v>65584600</v>
+        <v>72854800</v>
       </c>
       <c r="H8" s="3">
-        <v>62582400</v>
+        <v>63406000</v>
       </c>
       <c r="I8" s="3">
-        <v>55132100</v>
+        <v>60503500</v>
       </c>
       <c r="J8" s="3">
+        <v>53300700</v>
+      </c>
+      <c r="K8" s="3">
         <v>55045100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>79979300</v>
+        <v>79094200</v>
       </c>
       <c r="E9" s="3">
-        <v>68919100</v>
+        <v>77322500</v>
       </c>
       <c r="F9" s="3">
-        <v>57887600</v>
+        <v>66629700</v>
       </c>
       <c r="G9" s="3">
-        <v>51112300</v>
+        <v>55964700</v>
       </c>
       <c r="H9" s="3">
-        <v>50429100</v>
+        <v>49414400</v>
       </c>
       <c r="I9" s="3">
-        <v>49026900</v>
+        <v>48753900</v>
       </c>
       <c r="J9" s="3">
+        <v>47398300</v>
+      </c>
+      <c r="K9" s="3">
         <v>47518200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15910100</v>
+        <v>12105100</v>
       </c>
       <c r="E10" s="3">
-        <v>11732400</v>
+        <v>15381600</v>
       </c>
       <c r="F10" s="3">
-        <v>17470500</v>
+        <v>11342700</v>
       </c>
       <c r="G10" s="3">
-        <v>14472300</v>
+        <v>16890200</v>
       </c>
       <c r="H10" s="3">
-        <v>12153300</v>
+        <v>13991600</v>
       </c>
       <c r="I10" s="3">
-        <v>6105100</v>
+        <v>11749600</v>
       </c>
       <c r="J10" s="3">
+        <v>5902300</v>
+      </c>
+      <c r="K10" s="3">
         <v>7526900</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>409200</v>
+        <v>1177300</v>
       </c>
       <c r="E14" s="3">
-        <v>394200</v>
+        <v>395600</v>
       </c>
       <c r="F14" s="3">
-        <v>47600</v>
+        <v>381100</v>
       </c>
       <c r="G14" s="3">
-        <v>170500</v>
+        <v>46100</v>
       </c>
       <c r="H14" s="3">
-        <v>564400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>164900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>545700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>90765200</v>
+        <v>90313200</v>
       </c>
       <c r="E17" s="3">
-        <v>77982000</v>
+        <v>87750100</v>
       </c>
       <c r="F17" s="3">
-        <v>68834500</v>
+        <v>75391600</v>
       </c>
       <c r="G17" s="3">
-        <v>59467600</v>
+        <v>66547900</v>
       </c>
       <c r="H17" s="3">
-        <v>58077000</v>
+        <v>57492100</v>
       </c>
       <c r="I17" s="3">
-        <v>53572900</v>
+        <v>56147700</v>
       </c>
       <c r="J17" s="3">
+        <v>51793300</v>
+      </c>
+      <c r="K17" s="3">
         <v>52199700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5124300</v>
+        <v>886100</v>
       </c>
       <c r="E18" s="3">
-        <v>2669500</v>
+        <v>4954100</v>
       </c>
       <c r="F18" s="3">
-        <v>6523700</v>
+        <v>2580800</v>
       </c>
       <c r="G18" s="3">
-        <v>6117000</v>
+        <v>6307000</v>
       </c>
       <c r="H18" s="3">
-        <v>4505400</v>
+        <v>5913800</v>
       </c>
       <c r="I18" s="3">
-        <v>1559200</v>
+        <v>4355800</v>
       </c>
       <c r="J18" s="3">
+        <v>1507400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2845500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,62 +1016,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1060100</v>
+        <v>1111300</v>
       </c>
       <c r="E20" s="3">
-        <v>868900</v>
+        <v>1024900</v>
       </c>
       <c r="F20" s="3">
-        <v>293000</v>
+        <v>840100</v>
       </c>
       <c r="G20" s="3">
-        <v>-121000</v>
+        <v>283200</v>
       </c>
       <c r="H20" s="3">
-        <v>463800</v>
+        <v>-116900</v>
       </c>
       <c r="I20" s="3">
-        <v>450700</v>
+        <v>448400</v>
       </c>
       <c r="J20" s="3">
+        <v>435700</v>
+      </c>
+      <c r="K20" s="3">
         <v>328400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6517400</v>
+        <v>2375800</v>
       </c>
       <c r="E21" s="3">
-        <v>3848100</v>
+        <v>6300200</v>
       </c>
       <c r="F21" s="3">
-        <v>7119300</v>
+        <v>3719600</v>
       </c>
       <c r="G21" s="3">
-        <v>6311800</v>
+        <v>6882200</v>
       </c>
       <c r="H21" s="3">
-        <v>5270400</v>
+        <v>6101500</v>
       </c>
       <c r="I21" s="3">
-        <v>2299700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+        <v>5094700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2222700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1090,72 +1094,81 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>598400</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>382200</v>
+        <v>578500</v>
       </c>
       <c r="J22" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K22" s="3">
         <v>129600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6184400</v>
+        <v>1997400</v>
       </c>
       <c r="E23" s="3">
-        <v>3538400</v>
+        <v>5979000</v>
       </c>
       <c r="F23" s="3">
-        <v>6816600</v>
+        <v>3420900</v>
       </c>
       <c r="G23" s="3">
-        <v>5996100</v>
+        <v>6590200</v>
       </c>
       <c r="H23" s="3">
-        <v>4370800</v>
+        <v>5796900</v>
       </c>
       <c r="I23" s="3">
-        <v>1627800</v>
+        <v>4225600</v>
       </c>
       <c r="J23" s="3">
+        <v>1573700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3044300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1323700</v>
+        <v>284800</v>
       </c>
       <c r="E24" s="3">
-        <v>631800</v>
+        <v>1279700</v>
       </c>
       <c r="F24" s="3">
-        <v>1594500</v>
+        <v>610800</v>
       </c>
       <c r="G24" s="3">
-        <v>1170700</v>
+        <v>1541500</v>
       </c>
       <c r="H24" s="3">
-        <v>659400</v>
+        <v>1131800</v>
       </c>
       <c r="I24" s="3">
-        <v>-45100</v>
+        <v>637500</v>
       </c>
       <c r="J24" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K24" s="3">
         <v>300100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4860700</v>
+        <v>1712600</v>
       </c>
       <c r="E26" s="3">
-        <v>2906600</v>
+        <v>4699300</v>
       </c>
       <c r="F26" s="3">
-        <v>5222100</v>
+        <v>2810100</v>
       </c>
       <c r="G26" s="3">
-        <v>4825400</v>
+        <v>5048600</v>
       </c>
       <c r="H26" s="3">
-        <v>3711400</v>
+        <v>4665100</v>
       </c>
       <c r="I26" s="3">
-        <v>1672900</v>
+        <v>3588100</v>
       </c>
       <c r="J26" s="3">
+        <v>1617300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2744200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4786700</v>
+        <v>1635000</v>
       </c>
       <c r="E27" s="3">
-        <v>2838600</v>
+        <v>4627700</v>
       </c>
       <c r="F27" s="3">
-        <v>5149700</v>
+        <v>2744300</v>
       </c>
       <c r="G27" s="3">
-        <v>4780400</v>
+        <v>4978600</v>
       </c>
       <c r="H27" s="3">
-        <v>3675400</v>
+        <v>4621600</v>
       </c>
       <c r="I27" s="3">
-        <v>1641600</v>
+        <v>3553300</v>
       </c>
       <c r="J27" s="3">
+        <v>1587000</v>
+      </c>
+      <c r="K27" s="3">
         <v>2720500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1060100</v>
+        <v>-1111300</v>
       </c>
       <c r="E32" s="3">
-        <v>-868900</v>
+        <v>-1024900</v>
       </c>
       <c r="F32" s="3">
-        <v>-293000</v>
+        <v>-840100</v>
       </c>
       <c r="G32" s="3">
-        <v>121000</v>
+        <v>-283200</v>
       </c>
       <c r="H32" s="3">
-        <v>-463800</v>
+        <v>116900</v>
       </c>
       <c r="I32" s="3">
-        <v>-450700</v>
+        <v>-448400</v>
       </c>
       <c r="J32" s="3">
+        <v>-435700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-328400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4786700</v>
+        <v>1635000</v>
       </c>
       <c r="E33" s="3">
-        <v>2838600</v>
+        <v>4627700</v>
       </c>
       <c r="F33" s="3">
-        <v>5149700</v>
+        <v>2744300</v>
       </c>
       <c r="G33" s="3">
-        <v>4780400</v>
+        <v>4978600</v>
       </c>
       <c r="H33" s="3">
-        <v>3675400</v>
+        <v>4621600</v>
       </c>
       <c r="I33" s="3">
-        <v>1641600</v>
+        <v>3553300</v>
       </c>
       <c r="J33" s="3">
+        <v>1587000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2720500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4786700</v>
+        <v>1635000</v>
       </c>
       <c r="E35" s="3">
-        <v>2838600</v>
+        <v>4627700</v>
       </c>
       <c r="F35" s="3">
-        <v>5149700</v>
+        <v>2744300</v>
       </c>
       <c r="G35" s="3">
-        <v>4780400</v>
+        <v>4978600</v>
       </c>
       <c r="H35" s="3">
-        <v>3675400</v>
+        <v>4621600</v>
       </c>
       <c r="I35" s="3">
-        <v>1641600</v>
+        <v>3553300</v>
       </c>
       <c r="J35" s="3">
+        <v>1587000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2720500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7041200</v>
+        <v>7287600</v>
       </c>
       <c r="E41" s="3">
-        <v>9552300</v>
+        <v>6807300</v>
       </c>
       <c r="F41" s="3">
-        <v>11002400</v>
+        <v>9234900</v>
       </c>
       <c r="G41" s="3">
-        <v>6980300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>10306800</v>
+        <v>10636900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6748400</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J41" s="3">
+        <v>9964400</v>
+      </c>
+      <c r="K41" s="3">
         <v>7717500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1562,36 +1616,42 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2095700</v>
+        <v>2245200</v>
       </c>
       <c r="E43" s="3">
-        <v>1991800</v>
+        <v>2026100</v>
       </c>
       <c r="F43" s="3">
-        <v>1768000</v>
+        <v>1925600</v>
       </c>
       <c r="G43" s="3">
-        <v>2367700</v>
+        <v>1709300</v>
       </c>
       <c r="H43" s="3">
-        <v>1547200</v>
+        <v>2289100</v>
       </c>
       <c r="I43" s="3">
-        <v>1296800</v>
+        <v>1495800</v>
       </c>
       <c r="J43" s="3">
+        <v>1253700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1224800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1616,23 +1676,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59800</v>
+        <v>72300</v>
       </c>
       <c r="E45" s="3">
-        <v>975200</v>
+        <v>57800</v>
       </c>
       <c r="F45" s="3">
-        <v>941100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
+        <v>942800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>909800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -1643,9 +1706,12 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1670,63 +1736,72 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>403050000</v>
+        <v>437617000</v>
       </c>
       <c r="E47" s="3">
-        <v>371898000</v>
+        <v>389661000</v>
       </c>
       <c r="F47" s="3">
-        <v>335641000</v>
+        <v>359544000</v>
       </c>
       <c r="G47" s="3">
-        <v>310996000</v>
+        <v>324491000</v>
       </c>
       <c r="H47" s="3">
-        <v>275440000</v>
+        <v>300665000</v>
       </c>
       <c r="I47" s="3">
-        <v>258861000</v>
+        <v>266290000</v>
       </c>
       <c r="J47" s="3">
+        <v>250262000</v>
+      </c>
+      <c r="K47" s="3">
         <v>216866000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6792900</v>
+        <v>8182400</v>
       </c>
       <c r="E48" s="3">
-        <v>4686800</v>
+        <v>6567200</v>
       </c>
       <c r="F48" s="3">
-        <v>4186800</v>
+        <v>4531100</v>
       </c>
       <c r="G48" s="3">
-        <v>3952300</v>
+        <v>4047700</v>
       </c>
       <c r="H48" s="3">
-        <v>3669000</v>
+        <v>3821000</v>
       </c>
       <c r="I48" s="3">
-        <v>3314700</v>
+        <v>3547100</v>
       </c>
       <c r="J48" s="3">
+        <v>3204600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3002500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1739,21 +1814,24 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
-        <v>910800</v>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H49" s="3">
-        <v>917600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+        <v>880500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>887100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,14 +1886,17 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>180400</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -1823,18 +1907,21 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>2973500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2874800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>430032000</v>
+        <v>466942000</v>
       </c>
       <c r="E54" s="3">
-        <v>400255000</v>
+        <v>415746000</v>
       </c>
       <c r="F54" s="3">
-        <v>363354000</v>
+        <v>386959000</v>
       </c>
       <c r="G54" s="3">
-        <v>333413000</v>
+        <v>351284000</v>
       </c>
       <c r="H54" s="3">
-        <v>292804000</v>
+        <v>322337000</v>
       </c>
       <c r="I54" s="3">
-        <v>281818000</v>
+        <v>283078000</v>
       </c>
       <c r="J54" s="3">
+        <v>272457000</v>
+      </c>
+      <c r="K54" s="3">
         <v>235068000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,8 +2007,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1939,9 +2034,12 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1966,36 +2064,42 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>367302000</v>
+        <v>405354000</v>
       </c>
       <c r="E59" s="3">
-        <v>336046000</v>
+        <v>355101000</v>
       </c>
       <c r="F59" s="3">
-        <v>294821000</v>
+        <v>324883000</v>
       </c>
       <c r="G59" s="3">
-        <v>271073000</v>
+        <v>285028000</v>
       </c>
       <c r="H59" s="3">
-        <v>243798000</v>
+        <v>262069000</v>
       </c>
       <c r="I59" s="3">
-        <v>28651300</v>
+        <v>235699000</v>
       </c>
       <c r="J59" s="3">
+        <v>27699500</v>
+      </c>
+      <c r="K59" s="3">
         <v>21459800</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2020,63 +2124,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2789200</v>
+        <v>2891100</v>
       </c>
       <c r="E61" s="3">
-        <v>8039100</v>
+        <v>2696600</v>
       </c>
       <c r="F61" s="3">
-        <v>10483200</v>
+        <v>7772000</v>
       </c>
       <c r="G61" s="3">
-        <v>10479500</v>
+        <v>10135000</v>
       </c>
       <c r="H61" s="3">
-        <v>10089700</v>
+        <v>10131400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>9754500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>722900</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>1152800</v>
+        <v>698900</v>
       </c>
       <c r="F62" s="3">
-        <v>2516000</v>
+        <v>1114600</v>
       </c>
       <c r="G62" s="3">
-        <v>2875400</v>
+        <v>2432400</v>
       </c>
       <c r="H62" s="3">
-        <v>730000</v>
+        <v>2779900</v>
       </c>
       <c r="I62" s="3">
-        <v>1162600</v>
+        <v>705800</v>
       </c>
       <c r="J62" s="3">
+        <v>1124000</v>
+      </c>
+      <c r="K62" s="3">
         <v>215800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>382402000</v>
+        <v>421262000</v>
       </c>
       <c r="E66" s="3">
-        <v>355194000</v>
+        <v>369699000</v>
       </c>
       <c r="F66" s="3">
-        <v>315493000</v>
+        <v>343395000</v>
       </c>
       <c r="G66" s="3">
-        <v>291247000</v>
+        <v>305013000</v>
       </c>
       <c r="H66" s="3">
-        <v>260105000</v>
+        <v>281572000</v>
       </c>
       <c r="I66" s="3">
-        <v>249007000</v>
+        <v>251465000</v>
       </c>
       <c r="J66" s="3">
+        <v>240735000</v>
+      </c>
+      <c r="K66" s="3">
         <v>206643000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34811000</v>
+        <v>33584100</v>
       </c>
       <c r="E72" s="3">
-        <v>31067600</v>
+        <v>33654700</v>
       </c>
       <c r="F72" s="3">
-        <v>30043100</v>
+        <v>30035500</v>
       </c>
       <c r="G72" s="3">
-        <v>26554900</v>
+        <v>29045100</v>
       </c>
       <c r="H72" s="3">
-        <v>22911500</v>
+        <v>25672700</v>
       </c>
       <c r="I72" s="3">
-        <v>19823400</v>
+        <v>22150400</v>
       </c>
       <c r="J72" s="3">
+        <v>19164900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19146700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47629700</v>
+        <v>45679900</v>
       </c>
       <c r="E76" s="3">
-        <v>45060400</v>
+        <v>46047500</v>
       </c>
       <c r="F76" s="3">
-        <v>47861000</v>
+        <v>43563500</v>
       </c>
       <c r="G76" s="3">
-        <v>42166400</v>
+        <v>46271200</v>
       </c>
       <c r="H76" s="3">
-        <v>32699300</v>
+        <v>40765700</v>
       </c>
       <c r="I76" s="3">
-        <v>32811200</v>
+        <v>31613100</v>
       </c>
       <c r="J76" s="3">
+        <v>31721300</v>
+      </c>
+      <c r="K76" s="3">
         <v>28425000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4786700</v>
+        <v>1635000</v>
       </c>
       <c r="E81" s="3">
-        <v>2838600</v>
+        <v>4627700</v>
       </c>
       <c r="F81" s="3">
-        <v>5149700</v>
+        <v>2744300</v>
       </c>
       <c r="G81" s="3">
-        <v>4780400</v>
+        <v>4978600</v>
       </c>
       <c r="H81" s="3">
-        <v>3675400</v>
+        <v>4621600</v>
       </c>
       <c r="I81" s="3">
-        <v>1641600</v>
+        <v>3553300</v>
       </c>
       <c r="J81" s="3">
+        <v>1587000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2720500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>332400</v>
+        <v>378500</v>
       </c>
       <c r="E83" s="3">
-        <v>309100</v>
+        <v>321400</v>
       </c>
       <c r="F83" s="3">
-        <v>302200</v>
+        <v>298900</v>
       </c>
       <c r="G83" s="3">
-        <v>315200</v>
+        <v>292100</v>
       </c>
       <c r="H83" s="3">
-        <v>300700</v>
+        <v>304800</v>
       </c>
       <c r="I83" s="3">
-        <v>289300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+        <v>290700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>279600</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29828900</v>
+        <v>21170800</v>
       </c>
       <c r="E89" s="3">
-        <v>13223000</v>
+        <v>28838000</v>
       </c>
       <c r="F89" s="3">
-        <v>-2791700</v>
+        <v>12783800</v>
       </c>
       <c r="G89" s="3">
-        <v>11612600</v>
+        <v>-2699000</v>
       </c>
       <c r="H89" s="3">
-        <v>10135200</v>
+        <v>11226900</v>
       </c>
       <c r="I89" s="3">
-        <v>19617100</v>
+        <v>9798500</v>
       </c>
       <c r="J89" s="3">
+        <v>18965500</v>
+      </c>
+      <c r="K89" s="3">
         <v>19880000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1427600</v>
+        <v>-2804500</v>
       </c>
       <c r="E91" s="3">
-        <v>-788100</v>
+        <v>-1380100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1244300</v>
+        <v>-761900</v>
       </c>
       <c r="G91" s="3">
-        <v>-749200</v>
+        <v>-1202900</v>
       </c>
       <c r="H91" s="3">
-        <v>-552700</v>
+        <v>-724300</v>
       </c>
       <c r="I91" s="3">
-        <v>-984300</v>
+        <v>-534300</v>
       </c>
       <c r="J91" s="3">
+        <v>-951600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-995500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25775300</v>
+        <v>-34201800</v>
       </c>
       <c r="E94" s="3">
-        <v>-15539000</v>
+        <v>-24919000</v>
       </c>
       <c r="F94" s="3">
-        <v>9950400</v>
+        <v>-15022800</v>
       </c>
       <c r="G94" s="3">
-        <v>-10278400</v>
+        <v>9619900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8939200</v>
+        <v>-9937000</v>
       </c>
       <c r="I94" s="3">
-        <v>-30246600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-8642200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-29241800</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1063200</v>
+        <v>-1677300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1819100</v>
+        <v>-1027900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1705400</v>
+        <v>-1758600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1943700</v>
+        <v>-1648700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1193200</v>
+        <v>-1879200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1236700</v>
+        <v>-1153600</v>
       </c>
       <c r="J96" s="3">
+        <v>-1195600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1762500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6766800</v>
+        <v>13338300</v>
       </c>
       <c r="E100" s="3">
-        <v>930500</v>
+        <v>-6542000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2881400</v>
+        <v>899600</v>
       </c>
       <c r="G100" s="3">
-        <v>2479000</v>
+        <v>-2785700</v>
       </c>
       <c r="H100" s="3">
-        <v>-8326500</v>
+        <v>2396700</v>
       </c>
       <c r="I100" s="3">
-        <v>12628100</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-8049900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>12208600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26600</v>
+        <v>11600</v>
       </c>
       <c r="E101" s="3">
-        <v>42300</v>
+        <v>-25700</v>
       </c>
       <c r="F101" s="3">
-        <v>35800</v>
+        <v>40900</v>
       </c>
       <c r="G101" s="3">
-        <v>1500</v>
+        <v>34600</v>
       </c>
       <c r="H101" s="3">
-        <v>-11300</v>
+        <v>1400</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-10900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2739600</v>
+        <v>319000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1343100</v>
+        <v>-2648600</v>
       </c>
       <c r="F102" s="3">
-        <v>4313100</v>
+        <v>-1298500</v>
       </c>
       <c r="G102" s="3">
-        <v>3814700</v>
+        <v>4169800</v>
       </c>
       <c r="H102" s="3">
-        <v>-7141800</v>
+        <v>3688000</v>
       </c>
       <c r="I102" s="3">
-        <v>1998600</v>
+        <v>-6904500</v>
       </c>
       <c r="J102" s="3">
+        <v>1932200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1206700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
